--- a/Tiers.xlsx
+++ b/Tiers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdutta/Development/sre-playground/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2FF005-FBFF-A240-A44D-E2918D3FF837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A2FADE-FDEB-2040-8B93-59D3580A9428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" xr2:uid="{EE80ACE1-83B6-9B40-A5D9-41B5F0B5ABA4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
   <si>
     <t>Tier 1</t>
   </si>
@@ -116,12 +116,6 @@
     <t>/etc/resolv.conf</t>
   </si>
   <si>
-    <t>issue</t>
-  </si>
-  <si>
-    <t>DNS Routing</t>
-  </si>
-  <si>
     <t>hubble</t>
   </si>
   <si>
@@ -144,13 +138,61 @@
   </si>
   <si>
     <t>cilium -hubble</t>
+  </si>
+  <si>
+    <t>crds</t>
+  </si>
+  <si>
+    <t>Tier 2</t>
+  </si>
+  <si>
+    <t>platform-chart</t>
+  </si>
+  <si>
+    <t>ingress-nginx</t>
+  </si>
+  <si>
+    <t>loki</t>
+  </si>
+  <si>
+    <t>fluent-bit</t>
+  </si>
+  <si>
+    <t>prometheus</t>
+  </si>
+  <si>
+    <t>grafana</t>
+  </si>
+  <si>
+    <t>metric server</t>
+  </si>
+  <si>
+    <t>otel-operator</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
+  </si>
+  <si>
+    <t>app-chart</t>
+  </si>
+  <si>
+    <t>hipster-shop</t>
+  </si>
+  <si>
+    <t>ingress</t>
+  </si>
+  <si>
+    <t>testing chart</t>
+  </si>
+  <si>
+    <t>chaos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,13 +215,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -194,14 +274,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,236 +605,685 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792B1F39-DFEF-B740-AF33-36AA530F8B4F}">
-  <dimension ref="E26:M50"/>
+  <dimension ref="E11:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="26" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I26" t="s">
+    <row r="11" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M26" t="s">
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I27" t="s">
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M27" t="s">
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="M29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I30" t="s">
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I31" t="s">
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="M32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="M33" t="s">
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E34" s="1" t="s">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E37" s="1" t="s">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E51" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F51" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="G38" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" t="s">
-        <v>7</v>
-      </c>
-      <c r="M38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="G39" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" t="s">
-        <v>9</v>
-      </c>
-      <c r="M39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="G40" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" t="s">
-        <v>9</v>
-      </c>
-      <c r="M40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="G41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I41" t="s">
-        <v>9</v>
-      </c>
-      <c r="M41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" t="s">
-        <v>14</v>
-      </c>
-      <c r="M42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="G43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" t="s">
-        <v>21</v>
-      </c>
-      <c r="M44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="G45" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" t="s">
-        <v>9</v>
-      </c>
-      <c r="M45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" t="s">
-        <v>9</v>
-      </c>
-      <c r="M46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="G47" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" t="s">
-        <v>9</v>
-      </c>
-      <c r="M47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" t="s">
-        <v>20</v>
-      </c>
-      <c r="M48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G49" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" t="s">
-        <v>25</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G50" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tiers.xlsx
+++ b/Tiers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdutta/Development/sre-playground/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A2FADE-FDEB-2040-8B93-59D3580A9428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04AC85F-1482-0946-8B63-9777830BB514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" xr2:uid="{EE80ACE1-83B6-9B40-A5D9-41B5F0B5ABA4}"/>
   </bookViews>
@@ -274,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -291,6 +291,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792B1F39-DFEF-B740-AF33-36AA530F8B4F}">
   <dimension ref="E11:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -820,13 +821,13 @@
         <v>36</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8" t="s">
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14" t="s">
         <v>37</v>
       </c>
       <c r="N23" s="8"/>
